--- a/data/taxa_per_stage_per_metric_genus.xlsx
+++ b/data/taxa_per_stage_per_metric_genus.xlsx
@@ -1090,13 +1090,13 @@
         <v>2.58</v>
       </c>
       <c r="B31">
-        <v>80.05</v>
+        <v>102.7</v>
       </c>
       <c r="C31">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D31">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1114,13 +1114,13 @@
         <v>5.333</v>
       </c>
       <c r="B32">
-        <v>157.27</v>
+        <v>202.39</v>
       </c>
       <c r="C32">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="D32">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1138,13 +1138,13 @@
         <v>7.246</v>
       </c>
       <c r="B33">
-        <v>161.26</v>
+        <v>198.08</v>
       </c>
       <c r="C33">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="D33">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1162,13 +1162,13 @@
         <v>11.63</v>
       </c>
       <c r="B34">
-        <v>190</v>
+        <v>243.2</v>
       </c>
       <c r="C34">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="D34">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1186,13 +1186,13 @@
         <v>13.82</v>
       </c>
       <c r="B35">
-        <v>203.4</v>
+        <v>270.19</v>
       </c>
       <c r="C35">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="D35">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1210,13 +1210,13 @@
         <v>15.97</v>
       </c>
       <c r="B36">
-        <v>225.49</v>
+        <v>303.39</v>
       </c>
       <c r="C36">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="D36">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1234,13 +1234,13 @@
         <v>20.44</v>
       </c>
       <c r="B37">
-        <v>230.44</v>
+        <v>316.85</v>
       </c>
       <c r="C37">
-        <v>224</v>
+        <v>311</v>
       </c>
       <c r="D37">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1258,13 +1258,13 @@
         <v>23.03</v>
       </c>
       <c r="B38">
-        <v>194.32</v>
+        <v>272.99</v>
       </c>
       <c r="C38">
-        <v>187</v>
+        <v>263</v>
       </c>
       <c r="D38">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1282,13 +1282,13 @@
         <v>27.82</v>
       </c>
       <c r="B39">
-        <v>173.11</v>
+        <v>253.89</v>
       </c>
       <c r="C39">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D39">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1306,13 +1306,13 @@
         <v>33.9</v>
       </c>
       <c r="B40">
-        <v>158.45</v>
+        <v>245.83</v>
       </c>
       <c r="C40">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="D40">
-        <v>163</v>
+        <v>250</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1330,13 +1330,13 @@
         <v>37.71</v>
       </c>
       <c r="B41">
-        <v>206.62</v>
+        <v>317.95</v>
       </c>
       <c r="C41">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="D41">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1354,13 +1354,13 @@
         <v>41.2</v>
       </c>
       <c r="B42">
-        <v>237.4</v>
+        <v>344.91</v>
       </c>
       <c r="C42">
-        <v>228</v>
+        <v>335</v>
       </c>
       <c r="D42">
-        <v>246</v>
+        <v>355</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1378,13 +1378,13 @@
         <v>47.8</v>
       </c>
       <c r="B43">
-        <v>248.7</v>
+        <v>376.78</v>
       </c>
       <c r="C43">
-        <v>243</v>
+        <v>367</v>
       </c>
       <c r="D43">
-        <v>255</v>
+        <v>386</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1402,13 +1402,13 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>271.28</v>
+        <v>368.37</v>
       </c>
       <c r="C44">
-        <v>267</v>
+        <v>363</v>
       </c>
       <c r="D44">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1426,13 +1426,13 @@
         <v>59.2</v>
       </c>
       <c r="B45">
-        <v>186.38</v>
+        <v>258.1</v>
       </c>
       <c r="C45">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="D45">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1450,13 +1450,13 @@
         <v>61.6</v>
       </c>
       <c r="B46">
-        <v>112.74</v>
+        <v>187.51</v>
       </c>
       <c r="C46">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="D46">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1474,13 +1474,13 @@
         <v>66</v>
       </c>
       <c r="B47">
-        <v>150.1</v>
+        <v>229.78</v>
       </c>
       <c r="C47">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D47">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1498,13 +1498,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="B48">
-        <v>221.43</v>
+        <v>299.81</v>
       </c>
       <c r="C48">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="D48">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1522,13 +1522,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="B49">
-        <v>239.1</v>
+        <v>326.62</v>
       </c>
       <c r="C49">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="D49">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1546,13 +1546,13 @@
         <v>86.3</v>
       </c>
       <c r="B50">
-        <v>152.44</v>
+        <v>222.66</v>
       </c>
       <c r="C50">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="D50">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1570,13 +1570,13 @@
         <v>89.8</v>
       </c>
       <c r="B51">
-        <v>104.47</v>
+        <v>170.87</v>
       </c>
       <c r="C51">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="D51">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1594,13 +1594,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="B52">
-        <v>137.7</v>
+        <v>197.66</v>
       </c>
       <c r="C52">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="D52">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1618,13 +1618,13 @@
         <v>100.5</v>
       </c>
       <c r="B53">
-        <v>180.25</v>
+        <v>241.38</v>
       </c>
       <c r="C53">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="D53">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1642,13 +1642,13 @@
         <v>113</v>
       </c>
       <c r="B54">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C54">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="D54">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1666,13 +1666,13 @@
         <v>125</v>
       </c>
       <c r="B55">
-        <v>39.87</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="C55">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D55">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1690,13 +1690,13 @@
         <v>129.4</v>
       </c>
       <c r="B56">
-        <v>21.96</v>
+        <v>39.37</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D56">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1714,13 +1714,13 @@
         <v>132.6</v>
       </c>
       <c r="B57">
-        <v>15.33</v>
+        <v>31.7</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1738,13 +1738,13 @@
         <v>139.8</v>
       </c>
       <c r="B58">
-        <v>31.06</v>
+        <v>42.72</v>
       </c>
       <c r="C58">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D58">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1786,13 +1786,13 @@
         <v>2.58</v>
       </c>
       <c r="B60">
-        <v>12.1334</v>
+        <v>15.3537</v>
       </c>
       <c r="C60">
-        <v>11.38</v>
+        <v>14.35</v>
       </c>
       <c r="D60">
-        <v>12.81</v>
+        <v>16.06</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1810,13 +1810,13 @@
         <v>5.333</v>
       </c>
       <c r="B61">
-        <v>15.6272</v>
+        <v>23.5433</v>
       </c>
       <c r="C61">
-        <v>14.74</v>
+        <v>22.55</v>
       </c>
       <c r="D61">
-        <v>16.67</v>
+        <v>24.62</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1834,13 +1834,13 @@
         <v>7.246</v>
       </c>
       <c r="B62">
-        <v>18.4824</v>
+        <v>27.7078</v>
       </c>
       <c r="C62">
-        <v>16.46</v>
+        <v>25.85</v>
       </c>
       <c r="D62">
-        <v>20.42</v>
+        <v>29.32</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1858,13 +1858,13 @@
         <v>11.63</v>
       </c>
       <c r="B63">
-        <v>19.3301</v>
+        <v>31.7551</v>
       </c>
       <c r="C63">
-        <v>18.41</v>
+        <v>30.48</v>
       </c>
       <c r="D63">
-        <v>20.75</v>
+        <v>33.05</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1882,13 +1882,13 @@
         <v>13.82</v>
       </c>
       <c r="B64">
-        <v>19.9685</v>
+        <v>34.986</v>
       </c>
       <c r="C64">
-        <v>18.44</v>
+        <v>33.85</v>
       </c>
       <c r="D64">
-        <v>21.39</v>
+        <v>36.4</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1906,13 +1906,13 @@
         <v>15.97</v>
       </c>
       <c r="B65">
-        <v>21.7494</v>
+        <v>38.4353</v>
       </c>
       <c r="C65">
-        <v>20.57</v>
+        <v>36.62</v>
       </c>
       <c r="D65">
-        <v>23.13</v>
+        <v>40.28</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1930,13 +1930,13 @@
         <v>20.44</v>
       </c>
       <c r="B66">
-        <v>23.0967</v>
+        <v>42.6363</v>
       </c>
       <c r="C66">
-        <v>21.81</v>
+        <v>41.26</v>
       </c>
       <c r="D66">
-        <v>24.34</v>
+        <v>44.08</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1954,13 +1954,13 @@
         <v>23.03</v>
       </c>
       <c r="B67">
-        <v>22.6222</v>
+        <v>43.678</v>
       </c>
       <c r="C67">
-        <v>20.33</v>
+        <v>40.2</v>
       </c>
       <c r="D67">
-        <v>24.46</v>
+        <v>47.47</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1978,13 +1978,13 @@
         <v>27.82</v>
       </c>
       <c r="B68">
-        <v>24.0105</v>
+        <v>43.1224</v>
       </c>
       <c r="C68">
-        <v>22.57</v>
+        <v>41.02</v>
       </c>
       <c r="D68">
-        <v>25.67</v>
+        <v>44.76</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2002,13 +2002,13 @@
         <v>33.9</v>
       </c>
       <c r="B69">
-        <v>13.1345</v>
+        <v>32.3146</v>
       </c>
       <c r="C69">
-        <v>12.38</v>
+        <v>31.07</v>
       </c>
       <c r="D69">
-        <v>13.92</v>
+        <v>33.37</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2026,13 +2026,13 @@
         <v>37.71</v>
       </c>
       <c r="B70">
-        <v>23.5653</v>
+        <v>45.9582</v>
       </c>
       <c r="C70">
-        <v>22.28</v>
+        <v>44.74</v>
       </c>
       <c r="D70">
-        <v>25.24</v>
+        <v>47.9</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2050,13 +2050,13 @@
         <v>41.2</v>
       </c>
       <c r="B71">
-        <v>37.6049</v>
+        <v>59.1302</v>
       </c>
       <c r="C71">
-        <v>34.26</v>
+        <v>55.75</v>
       </c>
       <c r="D71">
-        <v>40.7</v>
+        <v>62.4</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2074,13 +2074,13 @@
         <v>47.8</v>
       </c>
       <c r="B72">
-        <v>32.0295</v>
+        <v>55.5949</v>
       </c>
       <c r="C72">
-        <v>30.29</v>
+        <v>53.77</v>
       </c>
       <c r="D72">
-        <v>33.53</v>
+        <v>58.43</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2098,13 +2098,13 @@
         <v>56</v>
       </c>
       <c r="B73">
-        <v>32.1297</v>
+        <v>50.6083</v>
       </c>
       <c r="C73">
-        <v>30.83</v>
+        <v>48.46</v>
       </c>
       <c r="D73">
-        <v>33.27</v>
+        <v>52.23</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2122,13 +2122,13 @@
         <v>59.2</v>
       </c>
       <c r="B74">
-        <v>23.5303</v>
+        <v>38.7955</v>
       </c>
       <c r="C74">
-        <v>22.34</v>
+        <v>37.16</v>
       </c>
       <c r="D74">
-        <v>24.56</v>
+        <v>40.18</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2146,13 +2146,13 @@
         <v>61.6</v>
       </c>
       <c r="B75">
-        <v>18.3868</v>
+        <v>32.1738</v>
       </c>
       <c r="C75">
-        <v>14.51</v>
+        <v>28.71</v>
       </c>
       <c r="D75">
-        <v>22.56</v>
+        <v>35.52</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2170,13 +2170,13 @@
         <v>66</v>
       </c>
       <c r="B76">
-        <v>28.9466</v>
+        <v>44.7384</v>
       </c>
       <c r="C76">
-        <v>27.37</v>
+        <v>41.55</v>
       </c>
       <c r="D76">
-        <v>31.02</v>
+        <v>46.84</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2194,13 +2194,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="B77">
-        <v>23.5995</v>
+        <v>41.1264</v>
       </c>
       <c r="C77">
-        <v>22.21</v>
+        <v>39.89</v>
       </c>
       <c r="D77">
-        <v>24.78</v>
+        <v>42.32</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2218,13 +2218,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="B78">
-        <v>23.7536</v>
+        <v>41.9935</v>
       </c>
       <c r="C78">
-        <v>22.87</v>
+        <v>40.55</v>
       </c>
       <c r="D78">
-        <v>24.91</v>
+        <v>43.44</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2242,13 +2242,13 @@
         <v>86.3</v>
       </c>
       <c r="B79">
-        <v>29.4641</v>
+        <v>44.7074</v>
       </c>
       <c r="C79">
-        <v>27.26</v>
+        <v>42.28</v>
       </c>
       <c r="D79">
-        <v>31.67</v>
+        <v>47.34</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2266,13 +2266,13 @@
         <v>89.8</v>
       </c>
       <c r="B80">
-        <v>13.1185</v>
+        <v>26.0892</v>
       </c>
       <c r="C80">
-        <v>11.88</v>
+        <v>24.92</v>
       </c>
       <c r="D80">
-        <v>14.11</v>
+        <v>27.74</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2290,13 +2290,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="B81">
-        <v>14.6309</v>
+        <v>27.2015</v>
       </c>
       <c r="C81">
-        <v>13.74</v>
+        <v>26.23</v>
       </c>
       <c r="D81">
-        <v>15.46</v>
+        <v>28.35</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2314,13 +2314,13 @@
         <v>100.5</v>
       </c>
       <c r="B82">
-        <v>18.951</v>
+        <v>31.9132</v>
       </c>
       <c r="C82">
-        <v>18.01</v>
+        <v>30.65</v>
       </c>
       <c r="D82">
-        <v>19.96</v>
+        <v>33.26</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2338,13 +2338,13 @@
         <v>113</v>
       </c>
       <c r="B83">
-        <v>12.7687</v>
+        <v>22.0747</v>
       </c>
       <c r="C83">
-        <v>11.65</v>
+        <v>21.11</v>
       </c>
       <c r="D83">
-        <v>13.51</v>
+        <v>22.86</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2362,13 +2362,13 @@
         <v>125</v>
       </c>
       <c r="B84">
-        <v>10.1184</v>
+        <v>18.5013</v>
       </c>
       <c r="C84">
-        <v>8.75</v>
+        <v>16.67</v>
       </c>
       <c r="D84">
-        <v>11.95</v>
+        <v>20</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2386,13 +2386,13 @@
         <v>129.4</v>
       </c>
       <c r="B85">
-        <v>4.0904</v>
+        <v>9.801</v>
       </c>
       <c r="C85">
-        <v>2.73</v>
+        <v>7.64</v>
       </c>
       <c r="D85">
-        <v>6.9</v>
+        <v>12.38</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2410,13 +2410,13 @@
         <v>132.6</v>
       </c>
       <c r="B86">
-        <v>2.6341</v>
+        <v>9.1532</v>
       </c>
       <c r="C86">
-        <v>2.11</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D86">
-        <v>4.96</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2432,6 +2432,15 @@
     <row r="87">
       <c r="A87">
         <v>139.8</v>
+      </c>
+      <c r="B87">
+        <v>22.0636</v>
+      </c>
+      <c r="C87">
+        <v>20.25</v>
+      </c>
+      <c r="D87">
+        <v>23.66</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>

--- a/data/taxa_per_stage_per_metric_genus.xlsx
+++ b/data/taxa_per_stage_per_metric_genus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,7 +404,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pleistocene</t>
+          <t>Ple</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -428,7 +428,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pliocene</t>
+          <t>Pli</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -522,11 +522,6 @@
       <c r="D7">
         <v>121.2754855346043</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Langhian</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -546,11 +541,6 @@
       <c r="D8">
         <v>132.6375475574672</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Burdigalian</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -570,11 +560,6 @@
       <c r="D9">
         <v>135.3853318205491</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Aquitanian</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -594,11 +579,6 @@
       <c r="D10">
         <v>110.124455424186</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Chattian</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -666,11 +646,6 @@
       <c r="D13">
         <v>192.3947490011054</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Bartonian</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -690,11 +665,6 @@
       <c r="D14">
         <v>176.8080871398119</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Lutetian</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -738,11 +708,6 @@
       <c r="D16">
         <v>137.6099342711939</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Thanetian</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -762,11 +727,6 @@
       <c r="D17">
         <v>154.6754768352777</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Selandian</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -810,11 +770,6 @@
       <c r="D19">
         <v>145.9218112840328</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Maastrichtian</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -858,11 +813,6 @@
       <c r="D21">
         <v>139.0509198304125</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Santonian</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -954,11 +904,6 @@
       <c r="D25">
         <v>127.4195567426228</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Albian</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -978,11 +923,6 @@
       <c r="D26">
         <v>75.45429714869657</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -1100,7 +1040,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pleistocene</t>
+          <t>Ple</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1124,7 +1064,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pliocene</t>
+          <t>Pli</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1218,11 +1158,6 @@
       <c r="D36">
         <v>311</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Langhian</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1242,11 +1177,6 @@
       <c r="D37">
         <v>323</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Burdigalian</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1266,11 +1196,6 @@
       <c r="D38">
         <v>282</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Aquitanian</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1290,11 +1215,6 @@
       <c r="D39">
         <v>258</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Chattian</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1362,11 +1282,6 @@
       <c r="D42">
         <v>355</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Bartonian</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1386,11 +1301,6 @@
       <c r="D43">
         <v>386</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Lutetian</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1434,11 +1344,6 @@
       <c r="D45">
         <v>264</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Thanetian</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1458,11 +1363,6 @@
       <c r="D46">
         <v>193</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Selandian</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1506,11 +1406,6 @@
       <c r="D48">
         <v>303</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Maastrichtian</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1554,11 +1449,6 @@
       <c r="D50">
         <v>227</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Santonian</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1650,11 +1540,6 @@
       <c r="D54">
         <v>137</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Albian</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1674,11 +1559,6 @@
       <c r="D55">
         <v>75</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1796,7 +1676,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pleistocene</t>
+          <t>Ple</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -1820,7 +1700,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Pliocene</t>
+          <t>Pli</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -1914,11 +1794,6 @@
       <c r="D65">
         <v>40.28</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Langhian</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -1938,11 +1813,6 @@
       <c r="D66">
         <v>44.08</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Burdigalian</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -1962,11 +1832,6 @@
       <c r="D67">
         <v>47.47</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Aquitanian</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -1986,11 +1851,6 @@
       <c r="D68">
         <v>44.76</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Chattian</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2058,11 +1918,6 @@
       <c r="D71">
         <v>62.4</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Bartonian</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2082,11 +1937,6 @@
       <c r="D72">
         <v>58.43</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Lutetian</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2130,11 +1980,6 @@
       <c r="D74">
         <v>40.18</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Thanetian</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2154,11 +1999,6 @@
       <c r="D75">
         <v>35.52</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Selandian</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2202,11 +2042,6 @@
       <c r="D77">
         <v>42.32</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Maastrichtian</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2250,11 +2085,6 @@
       <c r="D79">
         <v>47.34</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Santonian</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2346,11 +2176,6 @@
       <c r="D83">
         <v>22.86</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Albian</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2370,11 +2195,6 @@
       <c r="D84">
         <v>20</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2482,17 +2302,17 @@
         <v>2.58</v>
       </c>
       <c r="B89">
-        <v>14.532</v>
+        <v>22.622</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2501,17 +2321,17 @@
         <v>5.333</v>
       </c>
       <c r="B90">
-        <v>20.484</v>
+        <v>27.812</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2520,17 +2340,17 @@
         <v>7.246</v>
       </c>
       <c r="B91">
-        <v>17.99</v>
+        <v>33.832</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2539,17 +2359,17 @@
         <v>11.63</v>
       </c>
       <c r="B92">
-        <v>21.914</v>
+        <v>30.686</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2558,17 +2378,17 @@
         <v>13.82</v>
       </c>
       <c r="B93">
-        <v>25.76</v>
+        <v>30.464</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D93">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2577,17 +2397,17 @@
         <v>15.97</v>
       </c>
       <c r="B94">
-        <v>25.734</v>
+        <v>31.046</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2596,17 +2416,17 @@
         <v>20.44</v>
       </c>
       <c r="B95">
-        <v>30.178</v>
+        <v>35.924</v>
       </c>
       <c r="C95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D95">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2615,17 +2435,17 @@
         <v>23.03</v>
       </c>
       <c r="B96">
-        <v>24.926</v>
+        <v>31.848</v>
       </c>
       <c r="C96">
         <v>13</v>
       </c>
       <c r="D96">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2634,17 +2454,17 @@
         <v>27.82</v>
       </c>
       <c r="B97">
-        <v>26.79</v>
+        <v>30.63</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D97">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2653,17 +2473,17 @@
         <v>33.9</v>
       </c>
       <c r="B98">
-        <v>23.868</v>
+        <v>29.51</v>
       </c>
       <c r="C98">
         <v>4</v>
       </c>
       <c r="D98">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2672,17 +2492,17 @@
         <v>37.71</v>
       </c>
       <c r="B99">
-        <v>31.856</v>
+        <v>46.796</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D99">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2691,17 +2511,17 @@
         <v>41.2</v>
       </c>
       <c r="B100">
-        <v>39.918</v>
+        <v>49.992</v>
       </c>
       <c r="C100">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D100">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2710,17 +2530,17 @@
         <v>47.8</v>
       </c>
       <c r="B101">
-        <v>51.418</v>
+        <v>63.4</v>
       </c>
       <c r="C101">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D101">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2729,17 +2549,17 @@
         <v>56</v>
       </c>
       <c r="B102">
-        <v>33.218</v>
+        <v>43.038</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D102">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2748,17 +2568,17 @@
         <v>59.2</v>
       </c>
       <c r="B103">
-        <v>38.384</v>
+        <v>56.49</v>
       </c>
       <c r="C103">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D103">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2767,17 +2587,17 @@
         <v>61.6</v>
       </c>
       <c r="B104">
-        <v>6.892</v>
+        <v>13.2</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2786,17 +2606,17 @@
         <v>66</v>
       </c>
       <c r="B105">
-        <v>37.544</v>
+        <v>49.326</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D105">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2805,17 +2625,17 @@
         <v>72.09999999999999</v>
       </c>
       <c r="B106">
-        <v>19.552</v>
+        <v>29.952</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D106">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2824,17 +2644,17 @@
         <v>83.59999999999999</v>
       </c>
       <c r="B107">
-        <v>24.366</v>
+        <v>30.992</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D107">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2843,17 +2663,17 @@
         <v>86.3</v>
       </c>
       <c r="B108">
-        <v>26.656</v>
+        <v>32.916</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D108">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2862,17 +2682,17 @@
         <v>89.8</v>
       </c>
       <c r="B109">
-        <v>16.418</v>
+        <v>23.514</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D109">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2881,17 +2701,17 @@
         <v>93.90000000000001</v>
       </c>
       <c r="B110">
-        <v>22.15</v>
+        <v>27.394</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D110">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2900,17 +2720,17 @@
         <v>100.5</v>
       </c>
       <c r="B111">
-        <v>24.916</v>
+        <v>34.998</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D111">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2919,17 +2739,17 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>21.344</v>
+        <v>27.63</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D112">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2938,17 +2758,17 @@
         <v>125</v>
       </c>
       <c r="B113">
-        <v>21.236</v>
+        <v>25.696</v>
       </c>
       <c r="C113">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D113">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2957,17 +2777,17 @@
         <v>129.4</v>
       </c>
       <c r="B114">
-        <v>13.662</v>
+        <v>18.07</v>
       </c>
       <c r="C114">
         <v>11</v>
       </c>
       <c r="D114">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2976,17 +2796,1043 @@
         <v>132.6</v>
       </c>
       <c r="B115">
-        <v>15.68</v>
+        <v>18.16</v>
       </c>
       <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>23</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>divvy Circular Subsampling</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>2.58</v>
+      </c>
+      <c r="B116">
+        <v>49.058</v>
+      </c>
+      <c r="C116">
+        <v>21</v>
+      </c>
+      <c r="D116">
+        <v>74</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>5.333</v>
+      </c>
+      <c r="B117">
+        <v>105.94</v>
+      </c>
+      <c r="C117">
+        <v>40</v>
+      </c>
+      <c r="D117">
+        <v>136</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>7.246</v>
+      </c>
+      <c r="B118">
+        <v>44.27</v>
+      </c>
+      <c r="C118">
+        <v>26</v>
+      </c>
+      <c r="D118">
+        <v>61</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>11.63</v>
+      </c>
+      <c r="B119">
+        <v>124.722</v>
+      </c>
+      <c r="C119">
+        <v>18</v>
+      </c>
+      <c r="D119">
+        <v>149</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>13.82</v>
+      </c>
+      <c r="B120">
+        <v>119.088</v>
+      </c>
+      <c r="C120">
+        <v>13</v>
+      </c>
+      <c r="D120">
+        <v>138</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>15.97</v>
+      </c>
+      <c r="B121">
+        <v>128.944</v>
+      </c>
+      <c r="C121">
+        <v>17</v>
+      </c>
+      <c r="D121">
+        <v>155</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>20.44</v>
+      </c>
+      <c r="B122">
+        <v>170.676</v>
+      </c>
+      <c r="C122">
+        <v>32</v>
+      </c>
+      <c r="D122">
+        <v>199</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>23.03</v>
+      </c>
+      <c r="B123">
+        <v>76.218</v>
+      </c>
+      <c r="C123">
+        <v>15</v>
+      </c>
+      <c r="D123">
+        <v>91</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>27.82</v>
+      </c>
+      <c r="B124">
+        <v>61.4</v>
+      </c>
+      <c r="C124">
+        <v>50</v>
+      </c>
+      <c r="D124">
+        <v>77</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>33.9</v>
+      </c>
+      <c r="B125">
+        <v>122.188</v>
+      </c>
+      <c r="C125">
+        <v>21</v>
+      </c>
+      <c r="D125">
+        <v>137</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>37.71</v>
+      </c>
+      <c r="B126">
+        <v>148.268</v>
+      </c>
+      <c r="C126">
+        <v>38</v>
+      </c>
+      <c r="D126">
+        <v>173</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>41.2</v>
+      </c>
+      <c r="B127">
+        <v>143.518</v>
+      </c>
+      <c r="C127">
+        <v>33</v>
+      </c>
+      <c r="D127">
+        <v>164</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>47.8</v>
+      </c>
+      <c r="B128">
+        <v>224.406</v>
+      </c>
+      <c r="C128">
+        <v>41</v>
+      </c>
+      <c r="D128">
+        <v>275</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>56</v>
+      </c>
+      <c r="B129">
+        <v>250.174</v>
+      </c>
+      <c r="C129">
+        <v>25</v>
+      </c>
+      <c r="D129">
+        <v>278</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>59.2</v>
+      </c>
+      <c r="B130">
+        <v>161.79</v>
+      </c>
+      <c r="C130">
+        <v>132</v>
+      </c>
+      <c r="D130">
+        <v>174</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>61.6</v>
+      </c>
+      <c r="B131">
+        <v>47.626</v>
+      </c>
+      <c r="C131">
+        <v>17</v>
+      </c>
+      <c r="D131">
+        <v>52</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>66</v>
+      </c>
+      <c r="B132">
+        <v>120.25</v>
+      </c>
+      <c r="C132">
+        <v>35</v>
+      </c>
+      <c r="D132">
+        <v>141</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="B133">
+        <v>183.212</v>
+      </c>
+      <c r="C133">
+        <v>22</v>
+      </c>
+      <c r="D133">
+        <v>230</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="B134">
+        <v>210.576</v>
+      </c>
+      <c r="C134">
+        <v>19</v>
+      </c>
+      <c r="D134">
+        <v>243</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>86.3</v>
+      </c>
+      <c r="B135">
+        <v>95.574</v>
+      </c>
+      <c r="C135">
+        <v>84</v>
+      </c>
+      <c r="D135">
+        <v>102</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>89.8</v>
+      </c>
+      <c r="B136">
+        <v>60.016</v>
+      </c>
+      <c r="C136">
+        <v>16</v>
+      </c>
+      <c r="D136">
+        <v>71</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="B137">
+        <v>103.53</v>
+      </c>
+      <c r="C137">
+        <v>16</v>
+      </c>
+      <c r="D137">
+        <v>123</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>100.5</v>
+      </c>
+      <c r="B138">
+        <v>173.432</v>
+      </c>
+      <c r="C138">
+        <v>28</v>
+      </c>
+      <c r="D138">
+        <v>183</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>113</v>
+      </c>
+      <c r="B139">
+        <v>78.73</v>
+      </c>
+      <c r="C139">
+        <v>20</v>
+      </c>
+      <c r="D139">
+        <v>103</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>125</v>
+      </c>
+      <c r="B140">
+        <v>41.338</v>
+      </c>
+      <c r="C140">
+        <v>41</v>
+      </c>
+      <c r="D140">
+        <v>43</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>129.4</v>
+      </c>
+      <c r="B141">
+        <v>28</v>
+      </c>
+      <c r="C141">
+        <v>28</v>
+      </c>
+      <c r="D141">
+        <v>28</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>132.6</v>
+      </c>
+      <c r="B142">
+        <v>21.52</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>23</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>2.58</v>
+      </c>
+      <c r="B143">
+        <v>19.488</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>46</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>5.333</v>
+      </c>
+      <c r="B144">
+        <v>23.1096</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>72</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>7.246</v>
+      </c>
+      <c r="B145">
+        <v>42.624</v>
+      </c>
+      <c r="C145">
+        <v>9</v>
+      </c>
+      <c r="D145">
+        <v>65</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>11.63</v>
+      </c>
+      <c r="B146">
+        <v>30.01766666666667</v>
+      </c>
+      <c r="C146">
         <v>8</v>
       </c>
-      <c r="D115">
-        <v>22</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>divvy</t>
+      <c r="D146">
+        <v>82</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>13.82</v>
+      </c>
+      <c r="B147">
+        <v>27.6024</v>
+      </c>
+      <c r="C147">
+        <v>9</v>
+      </c>
+      <c r="D147">
+        <v>71</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>15.97</v>
+      </c>
+      <c r="B148">
+        <v>25.678</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>75</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>20.44</v>
+      </c>
+      <c r="B149">
+        <v>29.92466666666667</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>90</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>23.03</v>
+      </c>
+      <c r="B150">
+        <v>31.994</v>
+      </c>
+      <c r="C150">
+        <v>11</v>
+      </c>
+      <c r="D150">
+        <v>57</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>27.82</v>
+      </c>
+      <c r="B151">
+        <v>35.592</v>
+      </c>
+      <c r="C151">
+        <v>9</v>
+      </c>
+      <c r="D151">
+        <v>67</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>33.9</v>
+      </c>
+      <c r="B152">
+        <v>28.422</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>60</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>37.71</v>
+      </c>
+      <c r="B153">
+        <v>37.356</v>
+      </c>
+      <c r="C153">
+        <v>11</v>
+      </c>
+      <c r="D153">
+        <v>96</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>41.2</v>
+      </c>
+      <c r="B154">
+        <v>46.16733333333333</v>
+      </c>
+      <c r="C154">
+        <v>13</v>
+      </c>
+      <c r="D154">
+        <v>105</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>47.8</v>
+      </c>
+      <c r="B155">
+        <v>58.37466666666667</v>
+      </c>
+      <c r="C155">
+        <v>16</v>
+      </c>
+      <c r="D155">
+        <v>133</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>56</v>
+      </c>
+      <c r="B156">
+        <v>36.8616</v>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>105</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>59.2</v>
+      </c>
+      <c r="B157">
+        <v>58.72</v>
+      </c>
+      <c r="C157">
+        <v>21</v>
+      </c>
+      <c r="D157">
+        <v>109</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>61.6</v>
+      </c>
+      <c r="B158">
+        <v>17.30466666666667</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>36</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>66</v>
+      </c>
+      <c r="B159">
+        <v>41.14666666666667</v>
+      </c>
+      <c r="C159">
+        <v>16</v>
+      </c>
+      <c r="D159">
+        <v>77</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="B160">
+        <v>24.15633333333333</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>72</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="B161">
+        <v>28.8515</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>74</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>86.3</v>
+      </c>
+      <c r="B162">
+        <v>38.342</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+      <c r="D162">
+        <v>75</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>89.8</v>
+      </c>
+      <c r="B163">
+        <v>23.686</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+      <c r="D163">
+        <v>54</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="B164">
+        <v>30.458</v>
+      </c>
+      <c r="C164">
+        <v>9</v>
+      </c>
+      <c r="D164">
+        <v>65</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>100.5</v>
+      </c>
+      <c r="B165">
+        <v>22.872</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+      <c r="D165">
+        <v>76</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>113</v>
+      </c>
+      <c r="B166">
+        <v>23.464</v>
+      </c>
+      <c r="C166">
+        <v>8</v>
+      </c>
+      <c r="D166">
+        <v>57</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>125</v>
+      </c>
+      <c r="B167">
+        <v>25.106</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>38</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>129.4</v>
+      </c>
+      <c r="B168">
+        <v>16.13</v>
+      </c>
+      <c r="C168">
+        <v>15</v>
+      </c>
+      <c r="D168">
+        <v>17</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>132.6</v>
+      </c>
+      <c r="B169">
+        <v>18.228</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
+      </c>
+      <c r="D169">
+        <v>23</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
         </is>
       </c>
     </row>

--- a/data/taxa_per_stage_per_metric_genus.xlsx
+++ b/data/taxa_per_stage_per_metric_genus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2302,17 +2302,17 @@
         <v>2.58</v>
       </c>
       <c r="B89">
-        <v>22.622</v>
+        <v>52.519</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2321,17 +2321,17 @@
         <v>5.333</v>
       </c>
       <c r="B90">
-        <v>27.812</v>
+        <v>88.23571428571428</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>69</v>
+        <v>615</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2340,17 +2340,17 @@
         <v>7.246</v>
       </c>
       <c r="B91">
-        <v>33.832</v>
+        <v>75.79866666666666</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D91">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2359,17 +2359,17 @@
         <v>11.63</v>
       </c>
       <c r="B92">
-        <v>30.686</v>
+        <v>122.70625</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D92">
-        <v>69</v>
+        <v>878</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2378,17 @@
         <v>13.82</v>
       </c>
       <c r="B93">
-        <v>30.464</v>
+        <v>106.5262857142857</v>
       </c>
       <c r="C93">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D93">
-        <v>68</v>
+        <v>641</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2397,17 +2397,17 @@
         <v>15.97</v>
       </c>
       <c r="B94">
-        <v>31.046</v>
+        <v>154.9364</v>
       </c>
       <c r="C94">
         <v>10</v>
       </c>
       <c r="D94">
-        <v>77</v>
+        <v>737</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2416,17 +2416,17 @@
         <v>20.44</v>
       </c>
       <c r="B95">
-        <v>35.924</v>
+        <v>200.917</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D95">
-        <v>89</v>
+        <v>1689</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2435,17 +2435,17 @@
         <v>23.03</v>
       </c>
       <c r="B96">
-        <v>31.848</v>
+        <v>71.89266666666667</v>
       </c>
       <c r="C96">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2454,17 +2454,17 @@
         <v>27.82</v>
       </c>
       <c r="B97">
-        <v>30.63</v>
+        <v>61.3752</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D97">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2473,17 +2473,17 @@
         <v>33.9</v>
       </c>
       <c r="B98">
-        <v>29.51</v>
+        <v>176.889</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D98">
-        <v>57</v>
+        <v>983</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2492,17 +2492,17 @@
         <v>37.71</v>
       </c>
       <c r="B99">
-        <v>46.796</v>
+        <v>140.642</v>
       </c>
       <c r="C99">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99">
-        <v>91</v>
+        <v>693</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2511,17 +2511,17 @@
         <v>41.2</v>
       </c>
       <c r="B100">
-        <v>49.992</v>
+        <v>109.9456</v>
       </c>
       <c r="C100">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>113</v>
+        <v>351</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2530,17 +2530,17 @@
         <v>47.8</v>
       </c>
       <c r="B101">
-        <v>63.4</v>
+        <v>227.9372</v>
       </c>
       <c r="C101">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D101">
-        <v>140</v>
+        <v>1108</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2549,17 +2549,17 @@
         <v>56</v>
       </c>
       <c r="B102">
-        <v>43.038</v>
+        <v>202.914</v>
       </c>
       <c r="C102">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>88</v>
+        <v>1251</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2568,17 +2568,17 @@
         <v>59.2</v>
       </c>
       <c r="B103">
-        <v>56.49</v>
+        <v>272.5346666666667</v>
       </c>
       <c r="C103">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D103">
-        <v>97</v>
+        <v>682</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2587,17 +2587,17 @@
         <v>61.6</v>
       </c>
       <c r="B104">
-        <v>13.2</v>
+        <v>49.9128</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D104">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2606,17 +2606,17 @@
         <v>66</v>
       </c>
       <c r="B105">
-        <v>49.326</v>
+        <v>113.262</v>
       </c>
       <c r="C105">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D105">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2625,17 +2625,17 @@
         <v>72.09999999999999</v>
       </c>
       <c r="B106">
-        <v>29.952</v>
+        <v>140.736</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D106">
-        <v>80</v>
+        <v>1186</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2644,17 +2644,17 @@
         <v>83.59999999999999</v>
       </c>
       <c r="B107">
-        <v>30.992</v>
+        <v>241.963</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D107">
-        <v>75</v>
+        <v>1586</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2663,17 @@
         <v>86.3</v>
       </c>
       <c r="B108">
-        <v>32.916</v>
+        <v>86.73399999999999</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2682,17 +2682,17 @@
         <v>89.8</v>
       </c>
       <c r="B109">
-        <v>23.514</v>
+        <v>58.20533333333334</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D109">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2701,17 +2701,17 @@
         <v>93.90000000000001</v>
       </c>
       <c r="B110">
-        <v>27.394</v>
+        <v>127.3946666666667</v>
       </c>
       <c r="C110">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D110">
-        <v>57</v>
+        <v>434</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2720,17 +2720,17 @@
         <v>100.5</v>
       </c>
       <c r="B111">
-        <v>34.998</v>
+        <v>159.8165714285714</v>
       </c>
       <c r="C111">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>85</v>
+        <v>1129</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2739,17 +2739,17 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>27.63</v>
+        <v>94.785</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D112">
-        <v>59</v>
+        <v>379</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2758,17 +2758,17 @@
         <v>125</v>
       </c>
       <c r="B113">
-        <v>25.696</v>
+        <v>43.49733333333333</v>
       </c>
       <c r="C113">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D113">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2777,17 +2777,17 @@
         <v>129.4</v>
       </c>
       <c r="B114">
-        <v>18.07</v>
+        <v>41.81933333333333</v>
       </c>
       <c r="C114">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D114">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2796,1043 +2796,17 @@
         <v>132.6</v>
       </c>
       <c r="B115">
-        <v>18.16</v>
+        <v>28.97066666666667</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116">
-        <v>2.58</v>
-      </c>
-      <c r="B116">
-        <v>49.058</v>
-      </c>
-      <c r="C116">
-        <v>21</v>
-      </c>
-      <c r="D116">
-        <v>74</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117">
-        <v>5.333</v>
-      </c>
-      <c r="B117">
-        <v>105.94</v>
-      </c>
-      <c r="C117">
-        <v>40</v>
-      </c>
-      <c r="D117">
-        <v>136</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118">
-        <v>7.246</v>
-      </c>
-      <c r="B118">
-        <v>44.27</v>
-      </c>
-      <c r="C118">
-        <v>26</v>
-      </c>
-      <c r="D118">
-        <v>61</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119">
-        <v>11.63</v>
-      </c>
-      <c r="B119">
-        <v>124.722</v>
-      </c>
-      <c r="C119">
-        <v>18</v>
-      </c>
-      <c r="D119">
-        <v>149</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120">
-        <v>13.82</v>
-      </c>
-      <c r="B120">
-        <v>119.088</v>
-      </c>
-      <c r="C120">
-        <v>13</v>
-      </c>
-      <c r="D120">
-        <v>138</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121">
-        <v>15.97</v>
-      </c>
-      <c r="B121">
-        <v>128.944</v>
-      </c>
-      <c r="C121">
-        <v>17</v>
-      </c>
-      <c r="D121">
-        <v>155</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122">
-        <v>20.44</v>
-      </c>
-      <c r="B122">
-        <v>170.676</v>
-      </c>
-      <c r="C122">
-        <v>32</v>
-      </c>
-      <c r="D122">
-        <v>199</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>23.03</v>
-      </c>
-      <c r="B123">
-        <v>76.218</v>
-      </c>
-      <c r="C123">
-        <v>15</v>
-      </c>
-      <c r="D123">
-        <v>91</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>27.82</v>
-      </c>
-      <c r="B124">
-        <v>61.4</v>
-      </c>
-      <c r="C124">
-        <v>50</v>
-      </c>
-      <c r="D124">
-        <v>77</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>33.9</v>
-      </c>
-      <c r="B125">
-        <v>122.188</v>
-      </c>
-      <c r="C125">
-        <v>21</v>
-      </c>
-      <c r="D125">
-        <v>137</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>37.71</v>
-      </c>
-      <c r="B126">
-        <v>148.268</v>
-      </c>
-      <c r="C126">
-        <v>38</v>
-      </c>
-      <c r="D126">
-        <v>173</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>41.2</v>
-      </c>
-      <c r="B127">
-        <v>143.518</v>
-      </c>
-      <c r="C127">
-        <v>33</v>
-      </c>
-      <c r="D127">
-        <v>164</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>47.8</v>
-      </c>
-      <c r="B128">
-        <v>224.406</v>
-      </c>
-      <c r="C128">
-        <v>41</v>
-      </c>
-      <c r="D128">
-        <v>275</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>56</v>
-      </c>
-      <c r="B129">
-        <v>250.174</v>
-      </c>
-      <c r="C129">
-        <v>25</v>
-      </c>
-      <c r="D129">
-        <v>278</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>59.2</v>
-      </c>
-      <c r="B130">
-        <v>161.79</v>
-      </c>
-      <c r="C130">
-        <v>132</v>
-      </c>
-      <c r="D130">
-        <v>174</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>61.6</v>
-      </c>
-      <c r="B131">
-        <v>47.626</v>
-      </c>
-      <c r="C131">
-        <v>17</v>
-      </c>
-      <c r="D131">
-        <v>52</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>66</v>
-      </c>
-      <c r="B132">
-        <v>120.25</v>
-      </c>
-      <c r="C132">
-        <v>35</v>
-      </c>
-      <c r="D132">
-        <v>141</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="B133">
-        <v>183.212</v>
-      </c>
-      <c r="C133">
-        <v>22</v>
-      </c>
-      <c r="D133">
-        <v>230</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="B134">
-        <v>210.576</v>
-      </c>
-      <c r="C134">
-        <v>19</v>
-      </c>
-      <c r="D134">
-        <v>243</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>86.3</v>
-      </c>
-      <c r="B135">
-        <v>95.574</v>
-      </c>
-      <c r="C135">
-        <v>84</v>
-      </c>
-      <c r="D135">
-        <v>102</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>89.8</v>
-      </c>
-      <c r="B136">
-        <v>60.016</v>
-      </c>
-      <c r="C136">
-        <v>16</v>
-      </c>
-      <c r="D136">
-        <v>71</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="B137">
-        <v>103.53</v>
-      </c>
-      <c r="C137">
-        <v>16</v>
-      </c>
-      <c r="D137">
-        <v>123</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>100.5</v>
-      </c>
-      <c r="B138">
-        <v>173.432</v>
-      </c>
-      <c r="C138">
-        <v>28</v>
-      </c>
-      <c r="D138">
-        <v>183</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>113</v>
-      </c>
-      <c r="B139">
-        <v>78.73</v>
-      </c>
-      <c r="C139">
-        <v>20</v>
-      </c>
-      <c r="D139">
-        <v>103</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>125</v>
-      </c>
-      <c r="B140">
-        <v>41.338</v>
-      </c>
-      <c r="C140">
-        <v>41</v>
-      </c>
-      <c r="D140">
-        <v>43</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>129.4</v>
-      </c>
-      <c r="B141">
-        <v>28</v>
-      </c>
-      <c r="C141">
-        <v>28</v>
-      </c>
-      <c r="D141">
-        <v>28</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>132.6</v>
-      </c>
-      <c r="B142">
-        <v>21.52</v>
-      </c>
-      <c r="C142">
-        <v>3</v>
-      </c>
-      <c r="D142">
-        <v>23</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>2.58</v>
-      </c>
-      <c r="B143">
-        <v>19.488</v>
-      </c>
-      <c r="C143">
-        <v>2</v>
-      </c>
-      <c r="D143">
-        <v>46</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>5.333</v>
-      </c>
-      <c r="B144">
-        <v>23.1096</v>
-      </c>
-      <c r="C144">
-        <v>4</v>
-      </c>
-      <c r="D144">
-        <v>72</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>7.246</v>
-      </c>
-      <c r="B145">
-        <v>42.624</v>
-      </c>
-      <c r="C145">
-        <v>9</v>
-      </c>
-      <c r="D145">
-        <v>65</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>11.63</v>
-      </c>
-      <c r="B146">
-        <v>30.01766666666667</v>
-      </c>
-      <c r="C146">
-        <v>8</v>
-      </c>
-      <c r="D146">
-        <v>82</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>13.82</v>
-      </c>
-      <c r="B147">
-        <v>27.6024</v>
-      </c>
-      <c r="C147">
-        <v>9</v>
-      </c>
-      <c r="D147">
-        <v>71</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>15.97</v>
-      </c>
-      <c r="B148">
-        <v>25.678</v>
-      </c>
-      <c r="C148">
-        <v>2</v>
-      </c>
-      <c r="D148">
-        <v>75</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149">
-        <v>20.44</v>
-      </c>
-      <c r="B149">
-        <v>29.92466666666667</v>
-      </c>
-      <c r="C149">
-        <v>3</v>
-      </c>
-      <c r="D149">
-        <v>90</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150">
-        <v>23.03</v>
-      </c>
-      <c r="B150">
-        <v>31.994</v>
-      </c>
-      <c r="C150">
-        <v>11</v>
-      </c>
-      <c r="D150">
-        <v>57</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151">
-        <v>27.82</v>
-      </c>
-      <c r="B151">
-        <v>35.592</v>
-      </c>
-      <c r="C151">
-        <v>9</v>
-      </c>
-      <c r="D151">
-        <v>67</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152">
-        <v>33.9</v>
-      </c>
-      <c r="B152">
-        <v>28.422</v>
-      </c>
-      <c r="C152">
-        <v>3</v>
-      </c>
-      <c r="D152">
-        <v>60</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153">
-        <v>37.71</v>
-      </c>
-      <c r="B153">
-        <v>37.356</v>
-      </c>
-      <c r="C153">
-        <v>11</v>
-      </c>
-      <c r="D153">
-        <v>96</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154">
-        <v>41.2</v>
-      </c>
-      <c r="B154">
-        <v>46.16733333333333</v>
-      </c>
-      <c r="C154">
-        <v>13</v>
-      </c>
-      <c r="D154">
-        <v>105</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155">
-        <v>47.8</v>
-      </c>
-      <c r="B155">
-        <v>58.37466666666667</v>
-      </c>
-      <c r="C155">
-        <v>16</v>
-      </c>
-      <c r="D155">
-        <v>133</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156">
-        <v>56</v>
-      </c>
-      <c r="B156">
-        <v>36.8616</v>
-      </c>
-      <c r="C156">
-        <v>6</v>
-      </c>
-      <c r="D156">
-        <v>105</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157">
-        <v>59.2</v>
-      </c>
-      <c r="B157">
-        <v>58.72</v>
-      </c>
-      <c r="C157">
-        <v>21</v>
-      </c>
-      <c r="D157">
-        <v>109</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158">
-        <v>61.6</v>
-      </c>
-      <c r="B158">
-        <v>17.30466666666667</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>36</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159">
-        <v>66</v>
-      </c>
-      <c r="B159">
-        <v>41.14666666666667</v>
-      </c>
-      <c r="C159">
-        <v>16</v>
-      </c>
-      <c r="D159">
-        <v>77</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="B160">
-        <v>24.15633333333333</v>
-      </c>
-      <c r="C160">
-        <v>3</v>
-      </c>
-      <c r="D160">
-        <v>72</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="B161">
-        <v>28.8515</v>
-      </c>
-      <c r="C161">
-        <v>2</v>
-      </c>
-      <c r="D161">
-        <v>74</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162">
-        <v>86.3</v>
-      </c>
-      <c r="B162">
-        <v>38.342</v>
-      </c>
-      <c r="C162">
-        <v>6</v>
-      </c>
-      <c r="D162">
-        <v>75</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163">
-        <v>89.8</v>
-      </c>
-      <c r="B163">
-        <v>23.686</v>
-      </c>
-      <c r="C163">
-        <v>7</v>
-      </c>
-      <c r="D163">
-        <v>54</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="B164">
-        <v>30.458</v>
-      </c>
-      <c r="C164">
-        <v>9</v>
-      </c>
-      <c r="D164">
-        <v>65</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165">
-        <v>100.5</v>
-      </c>
-      <c r="B165">
-        <v>22.872</v>
-      </c>
-      <c r="C165">
-        <v>6</v>
-      </c>
-      <c r="D165">
-        <v>76</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166">
-        <v>113</v>
-      </c>
-      <c r="B166">
-        <v>23.464</v>
-      </c>
-      <c r="C166">
-        <v>8</v>
-      </c>
-      <c r="D166">
-        <v>57</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167">
-        <v>125</v>
-      </c>
-      <c r="B167">
-        <v>25.106</v>
-      </c>
-      <c r="C167">
-        <v>10</v>
-      </c>
-      <c r="D167">
-        <v>38</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168">
-        <v>129.4</v>
-      </c>
-      <c r="B168">
-        <v>16.13</v>
-      </c>
-      <c r="C168">
-        <v>15</v>
-      </c>
-      <c r="D168">
-        <v>17</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169">
-        <v>132.6</v>
-      </c>
-      <c r="B169">
-        <v>18.228</v>
-      </c>
-      <c r="C169">
-        <v>10</v>
-      </c>
-      <c r="D169">
-        <v>23</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
